--- a/server/tempSeeds/covid.xlsx
+++ b/server/tempSeeds/covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mband\Desktop\project-xr\server\tempSeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mband\Desktop\techdive-hack-avengers-team\server\tempSeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6382C3F-9BDC-4F17-8FA9-49AB4460F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4CDF47-4A61-49A0-B304-BB9EAF66BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24060" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="25035" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient Data" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="396">
   <si>
     <t>CR</t>
   </si>
@@ -87,99 +87,30 @@
     <t>BLACK OR AFRICAN AMERICAN</t>
   </si>
   <si>
-    <t>5' 10"</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>SARS-CoV-2 (COVID-19)</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>5' 4"</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>5' 7"</t>
-  </si>
-  <si>
-    <t>5' 9"</t>
-  </si>
-  <si>
-    <t>5' 6"</t>
-  </si>
-  <si>
-    <t>5' 1"</t>
-  </si>
-  <si>
     <t>WHITE</t>
   </si>
   <si>
-    <t>4' 11"</t>
-  </si>
-  <si>
-    <t>5' 3"</t>
-  </si>
-  <si>
-    <t>5' 8"</t>
-  </si>
-  <si>
-    <t>Misc Test: COVID-19 Testing</t>
-  </si>
-  <si>
-    <t>5' 2"</t>
-  </si>
-  <si>
-    <t>6' 0"</t>
-  </si>
-  <si>
-    <t>5' 11"</t>
-  </si>
-  <si>
-    <t>Misc Test: Misc Test: SARS Coronavirus 2 (COVID19) testing by PCR Viracor</t>
-  </si>
-  <si>
-    <t>6' 2"</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
-    <t>5' 0"</t>
-  </si>
-  <si>
     <t>ASIAN</t>
   </si>
   <si>
-    <t>6' 1"</t>
-  </si>
-  <si>
-    <t>5' 5"</t>
-  </si>
-  <si>
-    <t>Misc Test: covid-19</t>
-  </si>
-  <si>
     <t>NATIVE HAWAIIAN OR OTHER PACIFIC ISLANDER</t>
   </si>
   <si>
-    <t>Misc Test: Misc Test: SARS Coronavirus 2 (COVID19) testing by PCR Arkansas Department of Health</t>
-  </si>
-  <si>
-    <t>6' 4"</t>
-  </si>
-  <si>
-    <t>6' 5"</t>
-  </si>
-  <si>
     <t>Diagnosis to Imaging time (hrs)</t>
   </si>
   <si>
@@ -306,12 +237,6 @@
     <t>Indeterminate 2 cm left upper nodule, felt to represent a calcified  granuloma.</t>
   </si>
   <si>
-    <t xml:space="preserve">External </t>
-  </si>
-  <si>
-    <t xml:space="preserve">external </t>
-  </si>
-  <si>
     <t>Persistent trace left pleural  effusion.</t>
   </si>
   <si>
@@ -943,18 +868,6 @@
   </si>
   <si>
     <t>FIO2 @ time of img study</t>
-  </si>
-  <si>
-    <t>LATEST WEIGHT</t>
-  </si>
-  <si>
-    <t>LATEST HEIGHT</t>
-  </si>
-  <si>
-    <t>COMORBIDITIES</t>
-  </si>
-  <si>
-    <t>TEST NAME</t>
   </si>
   <si>
     <t>Image Study Description</t>
@@ -2314,11 +2227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,28 +2242,21 @@
     <col min="4" max="4" width="16.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
@@ -2362,24 +2268,15 @@
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B3" s="8">
         <v>51</v>
@@ -2396,31 +2293,22 @@
       <c r="F3" s="8">
         <v>37.700000000000003</v>
       </c>
-      <c r="G3" s="8">
-        <v>207</v>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B4" s="8">
         <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>19</v>
@@ -2431,25 +2319,16 @@
       <c r="F4" s="8">
         <v>64.599999999999994</v>
       </c>
-      <c r="G4" s="8">
-        <v>412</v>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B5" s="8">
         <v>44</v>
@@ -2466,31 +2345,22 @@
       <c r="F5" s="8">
         <v>33.299999999999997</v>
       </c>
-      <c r="G5" s="8">
-        <v>190</v>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B6" s="8">
         <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>19</v>
@@ -2501,31 +2371,22 @@
       <c r="F6" s="8">
         <v>36</v>
       </c>
-      <c r="G6" s="8">
-        <v>210</v>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B7" s="8">
         <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
@@ -2536,31 +2397,22 @@
       <c r="F7" s="8">
         <v>43.85</v>
       </c>
-      <c r="G7" s="8">
-        <v>280</v>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B8" s="8">
         <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -2571,25 +2423,16 @@
       <c r="F8" s="8">
         <v>23.57</v>
       </c>
-      <c r="G8" s="8">
-        <v>155</v>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B9" s="8">
         <v>48</v>
@@ -2606,25 +2449,16 @@
       <c r="F9" s="8">
         <v>29.8</v>
       </c>
-      <c r="G9" s="8">
-        <v>207</v>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B10" s="8">
         <v>39</v>
@@ -2633,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8">
         <v>722</v>
@@ -2641,31 +2475,22 @@
       <c r="F10" s="8">
         <v>33.5</v>
       </c>
-      <c r="G10" s="8">
-        <v>203</v>
+      <c r="G10" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B11" s="8">
         <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>19</v>
@@ -2676,34 +2501,25 @@
       <c r="F11" s="8">
         <v>27.46</v>
       </c>
-      <c r="G11" s="8">
-        <v>160</v>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B12" s="8">
         <v>88</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="8">
         <v>721</v>
@@ -2711,34 +2527,25 @@
       <c r="F12" s="8">
         <v>34.9</v>
       </c>
-      <c r="G12" s="8">
-        <v>155</v>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B13" s="8">
         <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8">
         <v>722</v>
@@ -2746,34 +2553,25 @@
       <c r="F13" s="8">
         <v>28.3</v>
       </c>
-      <c r="G13" s="8">
-        <v>149</v>
+      <c r="G13" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B14" s="8">
         <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="8">
         <v>722</v>
@@ -2781,25 +2579,16 @@
       <c r="F14" s="8">
         <v>18.7</v>
       </c>
-      <c r="G14" s="8">
-        <v>105</v>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B15" s="8">
         <v>43</v>
@@ -2816,25 +2605,16 @@
       <c r="F15" s="8">
         <v>33.42</v>
       </c>
-      <c r="G15" s="8">
-        <v>219</v>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B16" s="8">
         <v>77</v>
@@ -2851,25 +2631,16 @@
       <c r="F16" s="8">
         <v>28.2</v>
       </c>
-      <c r="G16" s="8">
-        <v>180</v>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B17" s="8">
         <v>70</v>
@@ -2886,34 +2657,25 @@
       <c r="F17" s="8">
         <v>31.2</v>
       </c>
-      <c r="G17" s="8">
-        <v>230</v>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B18" s="8">
         <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E18" s="8">
         <v>720</v>
@@ -2921,31 +2683,22 @@
       <c r="F18" s="8">
         <v>19.899999999999999</v>
       </c>
-      <c r="G18" s="8">
-        <v>116</v>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B19" s="8">
         <v>42</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
@@ -2956,25 +2709,16 @@
       <c r="F19" s="8">
         <v>51.1</v>
       </c>
-      <c r="G19" s="8">
-        <v>338</v>
+      <c r="G19" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B20" s="8">
         <v>40</v>
@@ -2983,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E20" s="8">
         <v>720</v>
@@ -2991,31 +2735,22 @@
       <c r="F20" s="8">
         <v>38.799999999999997</v>
       </c>
-      <c r="G20" s="8">
-        <v>270</v>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B21" s="8">
         <v>77</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>19</v>
@@ -3026,34 +2761,25 @@
       <c r="F21" s="8">
         <v>29.4</v>
       </c>
-      <c r="G21" s="8">
-        <v>187</v>
+      <c r="G21" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B22" s="8">
         <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E22" s="8">
         <v>721</v>
@@ -3061,34 +2787,25 @@
       <c r="F22" s="8">
         <v>30.67</v>
       </c>
-      <c r="G22" s="8">
-        <v>190</v>
+      <c r="G22" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B23" s="8">
         <v>29</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E23" s="8">
         <v>718</v>
@@ -3096,34 +2813,25 @@
       <c r="F23" s="8">
         <v>31.09</v>
       </c>
-      <c r="G23" s="8">
-        <v>170</v>
+      <c r="G23" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B24" s="8">
         <v>37</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E24" s="8">
         <v>720</v>
@@ -3131,31 +2839,22 @@
       <c r="F24" s="8">
         <v>56.46</v>
       </c>
-      <c r="G24" s="8">
-        <v>308</v>
+      <c r="G24" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B25" s="8">
         <v>60</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>19</v>
@@ -3166,25 +2865,16 @@
       <c r="F25" s="8">
         <v>39.479999999999997</v>
       </c>
-      <c r="G25" s="8">
-        <v>230</v>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B26" s="8">
         <v>67</v>
@@ -3193,7 +2883,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26" s="8">
         <v>720</v>
@@ -3201,31 +2891,22 @@
       <c r="F26" s="8">
         <v>19</v>
       </c>
-      <c r="G26" s="8">
-        <v>121</v>
+      <c r="G26" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B27" s="8">
         <v>51</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>19</v>
@@ -3236,34 +2917,25 @@
       <c r="F27" s="8">
         <v>33.61</v>
       </c>
-      <c r="G27" s="8">
-        <v>241</v>
+      <c r="G27" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B28" s="8">
         <v>81</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E28" s="8">
         <v>720</v>
@@ -3271,34 +2943,25 @@
       <c r="F28" s="8">
         <v>29.8</v>
       </c>
-      <c r="G28" s="8">
-        <v>194</v>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B29" s="8">
         <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E29" s="8">
         <v>720</v>
@@ -3306,25 +2969,16 @@
       <c r="F29" s="8">
         <v>29.3</v>
       </c>
-      <c r="G29" s="8">
-        <v>160</v>
+      <c r="G29" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B30" s="8">
         <v>61</v>
@@ -3333,7 +2987,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E30" s="8">
         <v>716</v>
@@ -3341,34 +2995,25 @@
       <c r="F30" s="8">
         <v>22.17</v>
       </c>
-      <c r="G30" s="8">
-        <v>145</v>
+      <c r="G30" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B31" s="8">
         <v>72</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E31" s="8">
         <v>720</v>
@@ -3376,25 +3021,16 @@
       <c r="F31" s="8">
         <v>28.19</v>
       </c>
-      <c r="G31" s="8">
-        <v>190</v>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B32" s="8">
         <v>87</v>
@@ -3403,7 +3039,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E32" s="8">
         <v>721</v>
@@ -3411,31 +3047,22 @@
       <c r="F32" s="8">
         <v>33.4</v>
       </c>
-      <c r="G32" s="8">
-        <v>220</v>
+      <c r="G32" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B33" s="8">
         <v>81</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>19</v>
@@ -3446,25 +3073,16 @@
       <c r="F33" s="8">
         <v>28.9</v>
       </c>
-      <c r="G33" s="8">
-        <v>135</v>
+      <c r="G33" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B34" s="8">
         <v>61</v>
@@ -3473,7 +3091,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E34" s="8">
         <v>721</v>
@@ -3481,25 +3099,16 @@
       <c r="F34" s="8">
         <v>42.8</v>
       </c>
-      <c r="G34" s="8">
-        <v>324</v>
+      <c r="G34" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B35" s="8">
         <v>37</v>
@@ -3516,31 +3125,22 @@
       <c r="F35" s="8">
         <v>31.6</v>
       </c>
-      <c r="G35" s="8">
-        <v>220</v>
+      <c r="G35" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B36" s="8">
         <v>28</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>19</v>
@@ -3551,31 +3151,22 @@
       <c r="F36" s="8">
         <v>37.44</v>
       </c>
-      <c r="G36" s="8">
-        <v>225</v>
+      <c r="G36" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B37" s="8">
         <v>76</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>19</v>
@@ -3586,34 +3177,25 @@
       <c r="F37" s="8">
         <v>34.9</v>
       </c>
-      <c r="G37" s="8">
-        <v>273</v>
+      <c r="G37" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B38" s="8">
         <v>59</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E38" s="8">
         <v>721</v>
@@ -3621,25 +3203,16 @@
       <c r="F38" s="8">
         <v>23.2</v>
       </c>
-      <c r="G38" s="8">
-        <v>127</v>
+      <c r="G38" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B39" s="8">
         <v>88</v>
@@ -3648,7 +3221,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E39" s="8">
         <v>721</v>
@@ -3656,25 +3229,16 @@
       <c r="F39" s="8">
         <v>43</v>
       </c>
-      <c r="G39" s="8">
-        <v>219</v>
+      <c r="G39" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="B40" s="8">
         <v>70</v>
@@ -3691,25 +3255,16 @@
       <c r="F40" s="8">
         <v>22.76</v>
       </c>
-      <c r="G40" s="8">
-        <v>177</v>
+      <c r="G40" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B41" s="8">
         <v>56</v>
@@ -3718,7 +3273,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E41" s="8">
         <v>720</v>
@@ -3726,25 +3281,16 @@
       <c r="F41" s="8">
         <v>32.49</v>
       </c>
-      <c r="G41" s="8">
-        <v>220</v>
+      <c r="G41" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B42" s="8">
         <v>49</v>
@@ -3761,25 +3307,16 @@
       <c r="F42" s="8">
         <v>33.5</v>
       </c>
-      <c r="G42" s="8">
-        <v>227</v>
+      <c r="G42" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B43" s="8">
         <v>55</v>
@@ -3796,31 +3333,22 @@
       <c r="F43" s="8">
         <v>34.4</v>
       </c>
-      <c r="G43" s="8">
-        <v>232</v>
+      <c r="G43" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="B44" s="8">
         <v>64</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>19</v>
@@ -3831,25 +3359,16 @@
       <c r="F44" s="8">
         <v>31.3</v>
       </c>
-      <c r="G44" s="8">
-        <v>173</v>
+      <c r="G44" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B45" s="8">
         <v>36</v>
@@ -3866,31 +3385,22 @@
       <c r="F45" s="8">
         <v>37.799999999999997</v>
       </c>
-      <c r="G45" s="8">
-        <v>271</v>
+      <c r="G45" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B46" s="8">
         <v>57</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>19</v>
@@ -3901,25 +3411,16 @@
       <c r="F46" s="8">
         <v>41.63</v>
       </c>
-      <c r="G46" s="8">
-        <v>257</v>
+      <c r="G46" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B47" s="8">
         <v>44</v>
@@ -3936,31 +3437,22 @@
       <c r="F47" s="8">
         <v>27.12</v>
       </c>
-      <c r="G47" s="8">
-        <v>200</v>
+      <c r="G47" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B48" s="8">
         <v>73</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>19</v>
@@ -3971,25 +3463,16 @@
       <c r="F48" s="8">
         <v>57.6</v>
       </c>
-      <c r="G48" s="8">
-        <v>364</v>
+      <c r="G48" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B49" s="8">
         <v>57</v>
@@ -4006,31 +3489,22 @@
       <c r="F49" s="8">
         <v>22.7</v>
       </c>
-      <c r="G49" s="8">
-        <v>149</v>
+      <c r="G49" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B50" s="8">
         <v>35</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>19</v>
@@ -4041,25 +3515,16 @@
       <c r="F50" s="8">
         <v>39.700000000000003</v>
       </c>
-      <c r="G50" s="8">
-        <v>238</v>
+      <c r="G50" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B51" s="8">
         <v>63</v>
@@ -4076,31 +3541,22 @@
       <c r="F51" s="8">
         <v>30.9</v>
       </c>
-      <c r="G51" s="8">
-        <v>235</v>
+      <c r="G51" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="B52" s="8">
         <v>61</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>19</v>
@@ -4111,25 +3567,16 @@
       <c r="F52" s="8">
         <v>35.799999999999997</v>
       </c>
-      <c r="G52" s="8">
-        <v>228</v>
+      <c r="G52" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B53" s="8">
         <v>64</v>
@@ -4146,31 +3593,22 @@
       <c r="F53" s="8">
         <v>27.44</v>
       </c>
-      <c r="G53" s="8">
-        <v>185</v>
+      <c r="G53" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="B54" s="8">
         <v>48</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>19</v>
@@ -4181,31 +3619,22 @@
       <c r="F54" s="8">
         <v>23.3</v>
       </c>
-      <c r="G54" s="8">
-        <v>140</v>
+      <c r="G54" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B55" s="8">
         <v>22</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>19</v>
@@ -4216,25 +3645,16 @@
       <c r="F55" s="8">
         <v>52.5</v>
       </c>
-      <c r="G55" s="8">
-        <v>287</v>
+      <c r="G55" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B56" s="8">
         <v>48</v>
@@ -4251,31 +3671,22 @@
       <c r="F56" s="8">
         <v>43.9</v>
       </c>
-      <c r="G56" s="8">
-        <v>332</v>
+      <c r="G56" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B57" s="8">
         <v>69</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>19</v>
@@ -4286,31 +3697,22 @@
       <c r="F57" s="8">
         <v>36</v>
       </c>
-      <c r="G57" s="8">
-        <v>239</v>
+      <c r="G57" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="B58" s="8">
         <v>74</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>19</v>
@@ -4321,31 +3723,22 @@
       <c r="F58" s="8">
         <v>21.11</v>
       </c>
-      <c r="G58" s="8">
-        <v>147</v>
+      <c r="G58" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="B59" s="8">
         <v>59</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>19</v>
@@ -4356,31 +3749,22 @@
       <c r="F59" s="8">
         <v>33.729999999999997</v>
       </c>
-      <c r="G59" s="8">
-        <v>185</v>
+      <c r="G59" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B60" s="8">
         <v>50</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>19</v>
@@ -4391,25 +3775,16 @@
       <c r="F60" s="8">
         <v>41.51</v>
       </c>
-      <c r="G60" s="8">
-        <v>273</v>
+      <c r="G60" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="B61" s="8">
         <v>87</v>
@@ -4418,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E61" s="8">
         <v>720</v>
@@ -4426,25 +3801,16 @@
       <c r="F61" s="8">
         <v>22.32</v>
       </c>
-      <c r="G61" s="8">
-        <v>160</v>
+      <c r="G61" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="B62" s="8">
         <v>26</v>
@@ -4453,7 +3819,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E62" s="8">
         <v>720</v>
@@ -4461,25 +3827,16 @@
       <c r="F62" s="8">
         <v>22.47</v>
       </c>
-      <c r="G62" s="8">
-        <v>175</v>
+      <c r="G62" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B63" s="8">
         <v>54</v>
@@ -4488,7 +3845,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E63" s="8">
         <v>716</v>
@@ -4496,25 +3853,16 @@
       <c r="F63" s="8">
         <v>23.27</v>
       </c>
-      <c r="G63" s="8">
-        <v>176</v>
+      <c r="G63" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B64" s="8">
         <v>60</v>
@@ -4531,31 +3879,22 @@
       <c r="F64" s="8">
         <v>22.2</v>
       </c>
-      <c r="G64" s="8">
-        <v>155</v>
+      <c r="G64" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B65" s="8">
         <v>34</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>19</v>
@@ -4566,31 +3905,22 @@
       <c r="F65" s="8">
         <v>31.3</v>
       </c>
-      <c r="G65" s="8">
-        <v>200</v>
+      <c r="G65" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B66" s="8">
         <v>73</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>19</v>
@@ -4601,34 +3931,25 @@
       <c r="F66" s="8">
         <v>31.62</v>
       </c>
-      <c r="G66" s="8">
-        <v>190</v>
+      <c r="G66" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" s="8">
+        <v>23</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K66" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B67" s="8">
-        <v>23</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E67" s="8">
         <v>721</v>
@@ -4636,31 +3957,22 @@
       <c r="F67" s="8">
         <v>41.15</v>
       </c>
-      <c r="G67" s="8">
-        <v>225</v>
+      <c r="G67" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B68" s="8">
         <v>64</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>19</v>
@@ -4671,34 +3983,25 @@
       <c r="F68" s="8">
         <v>35.6</v>
       </c>
-      <c r="G68" s="8">
-        <v>228</v>
+      <c r="G68" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B69" s="8">
         <v>59</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E69" s="8">
         <v>721</v>
@@ -4706,34 +4009,25 @@
       <c r="F69" s="8">
         <v>64.900000000000006</v>
       </c>
-      <c r="G69" s="8">
-        <v>392</v>
+      <c r="G69" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B70" s="8">
         <v>47</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E70" s="8">
         <v>729</v>
@@ -4741,25 +4035,16 @@
       <c r="F70" s="8">
         <v>21.8</v>
       </c>
-      <c r="G70" s="8">
-        <v>135</v>
+      <c r="G70" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B71" s="8">
         <v>19</v>
@@ -4776,34 +4061,25 @@
       <c r="F71" s="8">
         <v>23</v>
       </c>
-      <c r="G71" s="8">
-        <v>165</v>
+      <c r="G71" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B72" s="8">
         <v>25</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E72" s="8">
         <v>722</v>
@@ -4811,31 +4087,22 @@
       <c r="F72" s="8">
         <v>34.6</v>
       </c>
-      <c r="G72" s="8">
-        <v>221</v>
+      <c r="G72" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B73" s="8">
         <v>65</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>19</v>
@@ -4846,34 +4113,25 @@
       <c r="F73" s="8">
         <v>34.78</v>
       </c>
-      <c r="G73" s="8">
-        <v>178</v>
+      <c r="G73" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B74" s="8">
         <v>29</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E74" s="8">
         <v>721</v>
@@ -4881,31 +4139,22 @@
       <c r="F74" s="8">
         <v>21.11</v>
       </c>
-      <c r="G74" s="8">
-        <v>123</v>
+      <c r="G74" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B75" s="8">
         <v>60</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>19</v>
@@ -4916,34 +4165,25 @@
       <c r="F75" s="8">
         <v>38.07</v>
       </c>
-      <c r="G75" s="8">
-        <v>228</v>
+      <c r="G75" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="B76" s="8">
         <v>81</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E76" s="8">
         <v>721</v>
@@ -4951,34 +4191,25 @@
       <c r="F76" s="8">
         <v>39.1</v>
       </c>
-      <c r="G76" s="8">
-        <v>247</v>
+      <c r="G76" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B77" s="8">
         <v>57</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E77" s="8">
         <v>716</v>
@@ -4986,34 +4217,25 @@
       <c r="F77" s="8">
         <v>38.4</v>
       </c>
-      <c r="G77" s="8">
-        <v>243</v>
+      <c r="G77" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B78" s="8">
         <v>91</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E78" s="8">
         <v>720</v>
@@ -5021,31 +4243,22 @@
       <c r="F78" s="8">
         <v>26.2</v>
       </c>
-      <c r="G78" s="8">
-        <v>145</v>
+      <c r="G78" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B79" s="8">
         <v>58</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>19</v>
@@ -5056,25 +4269,16 @@
       <c r="F79" s="8">
         <v>33.04</v>
       </c>
-      <c r="G79" s="8">
-        <v>192</v>
+      <c r="G79" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B80" s="8">
         <v>38</v>
@@ -5083,7 +4287,7 @@
         <v>18</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E80" s="8">
         <v>721</v>
@@ -5091,25 +4295,16 @@
       <c r="F80" s="8">
         <v>34.200000000000003</v>
       </c>
-      <c r="G80" s="8">
-        <v>231</v>
+      <c r="G80" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B81" s="8">
         <v>49</v>
@@ -5126,25 +4321,16 @@
       <c r="F81" s="8">
         <v>26.6</v>
       </c>
-      <c r="G81" s="8">
-        <v>164</v>
+      <c r="G81" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B82" s="8">
         <v>66</v>
@@ -5153,7 +4339,7 @@
         <v>18</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E82" s="8">
         <v>716</v>
@@ -5161,25 +4347,16 @@
       <c r="F82" s="8">
         <v>24.9</v>
       </c>
-      <c r="G82" s="8">
-        <v>160</v>
+      <c r="G82" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="B83" s="8">
         <v>79</v>
@@ -5188,7 +4365,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E83" s="8">
         <v>720</v>
@@ -5196,25 +4373,16 @@
       <c r="F83" s="8">
         <v>26.1</v>
       </c>
-      <c r="G83" s="8">
-        <v>192</v>
+      <c r="G83" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B84" s="8">
         <v>89</v>
@@ -5223,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E84" s="8">
         <v>721</v>
@@ -5231,25 +4399,16 @@
       <c r="F84" s="8">
         <v>28.31</v>
       </c>
-      <c r="G84" s="8">
-        <v>197</v>
+      <c r="G84" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B85" s="8">
         <v>60</v>
@@ -5266,25 +4425,16 @@
       <c r="F85" s="8">
         <v>30.28</v>
       </c>
-      <c r="G85" s="8">
-        <v>205</v>
+      <c r="G85" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B86" s="8">
         <v>59</v>
@@ -5293,7 +4443,7 @@
         <v>18</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E86" s="8">
         <v>722</v>
@@ -5301,34 +4451,25 @@
       <c r="F86" s="8">
         <v>21.3</v>
       </c>
-      <c r="G86" s="8">
-        <v>132</v>
+      <c r="G86" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B87" s="8">
         <v>37</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E87" s="8">
         <v>718</v>
@@ -5336,25 +4477,16 @@
       <c r="F87" s="8">
         <v>39.5</v>
       </c>
-      <c r="G87" s="8">
-        <v>185</v>
+      <c r="G87" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B88" s="8">
         <v>81</v>
@@ -5363,7 +4495,7 @@
         <v>18</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E88" s="8">
         <v>716</v>
@@ -5371,25 +4503,16 @@
       <c r="F88" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="G88" s="8">
-        <v>120</v>
+      <c r="G88" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B89" s="8">
         <v>26</v>
@@ -5398,7 +4521,7 @@
         <v>18</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E89" s="8">
         <v>721</v>
@@ -5406,25 +4529,16 @@
       <c r="F89" s="8">
         <v>27.41</v>
       </c>
-      <c r="G89" s="8">
-        <v>175</v>
+      <c r="G89" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B90" s="8">
         <v>25</v>
@@ -5441,25 +4555,16 @@
       <c r="F90" s="8">
         <v>52.5</v>
       </c>
-      <c r="G90" s="8">
-        <v>409</v>
+      <c r="G90" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B91" s="8">
         <v>30</v>
@@ -5476,25 +4581,16 @@
       <c r="F91" s="8">
         <v>34.58</v>
       </c>
-      <c r="G91" s="8">
-        <v>255</v>
+      <c r="G91" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K91" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B92" s="8">
         <v>37</v>
@@ -5503,7 +4599,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E92" s="8">
         <v>721</v>
@@ -5511,34 +4607,25 @@
       <c r="F92" s="8">
         <v>25.8</v>
       </c>
-      <c r="G92" s="8">
-        <v>190</v>
+      <c r="G92" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B93" s="8">
         <v>29</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E93" s="8">
         <v>721</v>
@@ -5546,25 +4633,16 @@
       <c r="F93" s="8">
         <v>52.8</v>
       </c>
-      <c r="G93" s="8">
-        <v>327</v>
+      <c r="G93" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B94" s="21">
         <v>31</v>
@@ -5581,25 +4659,16 @@
       <c r="F94" s="21">
         <v>33.5</v>
       </c>
-      <c r="G94" s="21">
-        <v>240</v>
+      <c r="G94" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K94" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B95" s="8">
         <v>79</v>
@@ -5608,7 +4677,7 @@
         <v>18</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E95" s="8">
         <v>721</v>
@@ -5616,25 +4685,16 @@
       <c r="F95" s="8">
         <v>27.8</v>
       </c>
-      <c r="G95" s="8">
-        <v>209</v>
+      <c r="G95" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="B96" s="8">
         <v>55</v>
@@ -5643,33 +4703,24 @@
         <v>18</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E96" s="8">
         <v>725</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J96" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B97" s="8">
         <v>55</v>
@@ -5686,25 +4737,16 @@
       <c r="F97" s="8">
         <v>26.78</v>
       </c>
-      <c r="G97" s="8">
-        <v>192</v>
+      <c r="G97" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B98" s="8">
         <v>48</v>
@@ -5721,25 +4763,16 @@
       <c r="F98" s="8">
         <v>31.3</v>
       </c>
-      <c r="G98" s="8">
-        <v>205</v>
+      <c r="G98" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="B99" s="8">
         <v>47</v>
@@ -5756,25 +4789,16 @@
       <c r="F99" s="8">
         <v>48.4</v>
       </c>
-      <c r="G99" s="8">
-        <v>408</v>
+      <c r="G99" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B100" s="8">
         <v>64</v>
@@ -5783,7 +4807,7 @@
         <v>18</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E100" s="8">
         <v>719</v>
@@ -5791,25 +4815,16 @@
       <c r="F100" s="8">
         <v>23.71</v>
       </c>
-      <c r="G100" s="8">
-        <v>170</v>
+      <c r="G100" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="B101" s="8">
         <v>71</v>
@@ -5818,7 +4833,7 @@
         <v>18</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E101" s="8">
         <v>716</v>
@@ -5826,25 +4841,16 @@
       <c r="F101" s="8">
         <v>28.3</v>
       </c>
-      <c r="G101" s="8">
-        <v>186</v>
+      <c r="G101" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B102" s="8">
         <v>47</v>
@@ -5861,25 +4867,16 @@
       <c r="F102" s="8">
         <v>39.159999999999997</v>
       </c>
-      <c r="G102" s="8">
-        <v>305</v>
+      <c r="G102" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B103" s="8">
         <v>57</v>
@@ -5888,7 +4885,7 @@
         <v>18</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E103" s="8">
         <v>722</v>
@@ -5896,25 +4893,16 @@
       <c r="F103" s="8">
         <v>29.2</v>
       </c>
-      <c r="G103" s="8">
-        <v>171</v>
+      <c r="G103" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J103" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B104" s="8">
         <v>41</v>
@@ -5923,7 +4911,7 @@
         <v>18</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E104" s="8">
         <v>716</v>
@@ -5931,34 +4919,25 @@
       <c r="F104" s="8">
         <v>29.1</v>
       </c>
-      <c r="G104" s="8">
-        <v>208</v>
+      <c r="G104" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J104" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="B105" s="8">
         <v>39</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E105" s="8">
         <v>728</v>
@@ -5966,31 +4945,22 @@
       <c r="F105" s="8">
         <v>34.54</v>
       </c>
-      <c r="G105" s="8">
-        <v>195</v>
+      <c r="G105" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J105" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B106" s="8">
         <v>29</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>19</v>
@@ -6001,34 +4971,25 @@
       <c r="F106" s="8">
         <v>32.9</v>
       </c>
-      <c r="G106" s="8">
-        <v>219</v>
+      <c r="G106" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="B107" s="9">
         <v>41</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E107" s="9">
         <v>722</v>
@@ -6036,20 +4997,11 @@
       <c r="F107" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="G107" s="9">
-        <v>229</v>
+      <c r="G107" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K107" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6088,30 +5040,30 @@
     </row>
     <row r="2" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B3" s="15">
         <v>0</v>
@@ -6126,15 +5078,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
@@ -6149,15 +5101,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
@@ -6172,15 +5124,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -6195,15 +5147,15 @@
         <v>10</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B7" s="15">
         <v>1</v>
@@ -6218,15 +5170,15 @@
         <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B8" s="15">
         <v>2</v>
@@ -6241,15 +5193,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B9" s="15">
         <v>0</v>
@@ -6264,15 +5216,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B10" s="15">
         <v>4</v>
@@ -6287,15 +5239,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B11" s="15">
         <v>10</v>
@@ -6310,15 +5262,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
@@ -6333,15 +5285,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B13" s="15">
         <v>2</v>
@@ -6356,15 +5308,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
@@ -6379,15 +5331,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -6402,15 +5354,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B16" s="15">
         <v>3</v>
@@ -6425,15 +5377,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B17" s="15">
         <v>0</v>
@@ -6448,15 +5400,15 @@
         <v>0</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B18" s="15">
         <v>10</v>
@@ -6471,15 +5423,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B19" s="15">
         <v>0</v>
@@ -6494,15 +5446,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B20" s="15">
         <v>0</v>
@@ -6517,15 +5469,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -6540,15 +5492,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B22" s="15">
         <v>3</v>
@@ -6563,15 +5515,15 @@
         <v>9</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B23" s="15">
         <v>3</v>
@@ -6586,15 +5538,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B24" s="15">
         <v>28</v>
@@ -6609,15 +5561,15 @@
         <v>9</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B25" s="15">
         <v>28</v>
@@ -6632,15 +5584,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B26" s="15">
         <v>0</v>
@@ -6655,15 +5607,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B27" s="15">
         <v>2</v>
@@ -6678,15 +5630,15 @@
         <v>0</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B28" s="15">
         <v>-1</v>
@@ -6701,15 +5653,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B29" s="15">
         <v>0</v>
@@ -6724,15 +5676,15 @@
         <v>10</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B30" s="15">
         <v>1</v>
@@ -6747,15 +5699,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B31" s="15">
         <v>0</v>
@@ -6770,15 +5722,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B32" s="15">
         <v>0</v>
@@ -6793,15 +5745,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B33" s="15">
         <v>2</v>
@@ -6816,15 +5768,15 @@
         <v>9</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B34" s="15">
         <v>28</v>
@@ -6839,15 +5791,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B35" s="15">
         <v>28</v>
@@ -6862,15 +5814,15 @@
         <v>9</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B36" s="15">
         <v>4</v>
@@ -6885,15 +5837,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
@@ -6908,15 +5860,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B38" s="15">
         <v>3</v>
@@ -6931,15 +5883,15 @@
         <v>0</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B39" s="15">
         <v>0</v>
@@ -6954,15 +5906,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B40" s="15">
         <v>5</v>
@@ -6977,15 +5929,15 @@
         <v>0</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
@@ -7000,15 +5952,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B42" s="15">
         <v>5</v>
@@ -7023,15 +5975,15 @@
         <v>0</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B43" s="15">
         <v>0</v>
@@ -7046,15 +5998,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B44" s="15">
         <v>6</v>
@@ -7069,15 +6021,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B45" s="15">
         <v>0</v>
@@ -7092,15 +6044,15 @@
         <v>1</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B46" s="15">
         <v>2</v>
@@ -7115,15 +6067,15 @@
         <v>1</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B47" s="15">
         <v>0</v>
@@ -7138,15 +6090,15 @@
         <v>9</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B48" s="15">
         <v>0</v>
@@ -7161,15 +6113,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B49" s="15">
         <v>1</v>
@@ -7184,15 +6136,15 @@
         <v>1</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B50" s="15">
         <v>0</v>
@@ -7207,15 +6159,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B51" s="15">
         <v>-7</v>
@@ -7230,15 +6182,15 @@
         <v>1</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
@@ -7253,15 +6205,15 @@
         <v>0</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B53" s="15">
         <v>2</v>
@@ -7276,15 +6228,15 @@
         <v>1</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B54" s="15">
         <v>30</v>
@@ -7299,15 +6251,15 @@
         <v>9</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
@@ -7322,15 +6274,15 @@
         <v>1</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B56" s="15">
         <v>5</v>
@@ -7345,15 +6297,15 @@
         <v>1</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B57" s="15">
         <v>0</v>
@@ -7368,15 +6320,15 @@
         <v>1</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B58" s="15">
         <v>0</v>
@@ -7391,15 +6343,15 @@
         <v>1</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B59" s="15">
         <v>0</v>
@@ -7414,15 +6366,15 @@
         <v>1</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B60" s="15">
         <v>25</v>
@@ -7437,15 +6389,15 @@
         <v>9</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B61" s="15">
         <v>0</v>
@@ -7460,15 +6412,15 @@
         <v>1</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B62" s="15">
         <v>1</v>
@@ -7483,15 +6435,15 @@
         <v>1</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B63" s="15">
         <v>7</v>
@@ -7506,15 +6458,15 @@
         <v>0</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B64" s="15">
         <v>0</v>
@@ -7529,15 +6481,15 @@
         <v>1</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B65" s="15">
         <v>3</v>
@@ -7552,15 +6504,15 @@
         <v>1</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B66" s="15">
         <v>5</v>
@@ -7575,15 +6527,15 @@
         <v>1</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B67" s="15">
         <v>0</v>
@@ -7598,15 +6550,15 @@
         <v>1</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B68" s="15">
         <v>0</v>
@@ -7621,15 +6573,15 @@
         <v>9</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B69" s="15">
         <v>0</v>
@@ -7644,15 +6596,15 @@
         <v>1</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B70" s="15">
         <v>4</v>
@@ -7667,15 +6619,15 @@
         <v>0</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B71" s="15">
         <v>15</v>
@@ -7690,15 +6642,15 @@
         <v>1</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B72" s="15">
         <v>2</v>
@@ -7713,15 +6665,15 @@
         <v>1</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B73" s="15">
         <v>3</v>
@@ -7736,15 +6688,15 @@
         <v>1</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B74" s="15">
         <v>5</v>
@@ -7759,15 +6711,15 @@
         <v>1</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B75" s="15">
         <v>5</v>
@@ -7785,12 +6737,12 @@
         <v>80</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B76" s="15">
         <v>6</v>
@@ -7805,15 +6757,15 @@
         <v>1</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B77" s="15">
         <v>3</v>
@@ -7828,15 +6780,15 @@
         <v>1</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B78" s="15">
         <v>12</v>
@@ -7851,15 +6803,15 @@
         <v>1</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B79" s="15">
         <v>22</v>
@@ -7874,15 +6826,15 @@
         <v>1</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B80" s="15">
         <v>49</v>
@@ -7897,15 +6849,15 @@
         <v>9</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B81" s="15">
         <v>0</v>
@@ -7920,15 +6872,15 @@
         <v>1</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B82" s="15">
         <v>2</v>
@@ -7943,15 +6895,15 @@
         <v>1</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B83" s="15">
         <v>5</v>
@@ -7966,15 +6918,15 @@
         <v>1</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
@@ -7989,15 +6941,15 @@
         <v>1</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
@@ -8012,15 +6964,15 @@
         <v>0</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B86" s="15">
         <v>1</v>
@@ -8035,15 +6987,15 @@
         <v>9</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B87" s="15">
         <v>0</v>
@@ -8058,15 +7010,15 @@
         <v>1</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B88" s="15">
         <v>0</v>
@@ -8081,15 +7033,15 @@
         <v>1</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B89" s="15">
         <v>1</v>
@@ -8104,15 +7056,15 @@
         <v>0</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B90" s="15">
         <v>5</v>
@@ -8130,12 +7082,12 @@
         <v>70</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B91" s="15">
         <v>11</v>
@@ -8153,12 +7105,12 @@
         <v>45</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B92" s="15">
         <v>17</v>
@@ -8173,15 +7125,15 @@
         <v>1</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B93" s="15">
         <v>21</v>
@@ -8196,15 +7148,15 @@
         <v>1</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="B94" s="15">
         <v>1</v>
@@ -8219,15 +7171,15 @@
         <v>1</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B95" s="15">
         <v>0</v>
@@ -8242,15 +7194,15 @@
         <v>1</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B96" s="15">
         <v>1</v>
@@ -8265,15 +7217,15 @@
         <v>1</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B97" s="15">
         <v>3</v>
@@ -8288,15 +7240,15 @@
         <v>1</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B98" s="15">
         <v>3</v>
@@ -8311,15 +7263,15 @@
         <v>1</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B99" s="15">
         <v>4</v>
@@ -8334,15 +7286,15 @@
         <v>1</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B100" s="15">
         <v>6</v>
@@ -8357,15 +7309,15 @@
         <v>1</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B101" s="15">
         <v>7</v>
@@ -8380,15 +7332,15 @@
         <v>1</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B102" s="15">
         <v>3</v>
@@ -8403,15 +7355,15 @@
         <v>1</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B103" s="15">
         <v>6</v>
@@ -8426,15 +7378,15 @@
         <v>1</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B104" s="15">
         <v>0</v>
@@ -8449,15 +7401,15 @@
         <v>1</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="66.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B105" s="15">
         <v>1</v>
@@ -8472,15 +7424,15 @@
         <v>1</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B106" s="15">
         <v>5</v>
@@ -8495,15 +7447,15 @@
         <v>1</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
@@ -8518,15 +7470,15 @@
         <v>9</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B108" s="15">
         <v>0</v>
@@ -8541,15 +7493,15 @@
         <v>1</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B109" s="15">
         <v>8</v>
@@ -8564,15 +7516,15 @@
         <v>1</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B110" s="15">
         <v>0</v>
@@ -8587,15 +7539,15 @@
         <v>1</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B111" s="15">
         <v>3</v>
@@ -8610,15 +7562,15 @@
         <v>1</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="B112" s="15">
         <v>7</v>
@@ -8633,15 +7585,15 @@
         <v>1</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="B113" s="15">
         <v>51</v>
@@ -8656,15 +7608,15 @@
         <v>1</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B114" s="15">
         <v>0</v>
@@ -8682,12 +7634,12 @@
         <v>100</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B115" s="15">
         <v>0</v>
@@ -8702,15 +7654,15 @@
         <v>1</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B116" s="15">
         <v>4</v>
@@ -8725,15 +7677,15 @@
         <v>1</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B117" s="15">
         <v>6</v>
@@ -8748,15 +7700,15 @@
         <v>1</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B118" s="15">
         <v>8</v>
@@ -8771,15 +7723,15 @@
         <v>1</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B119" s="15">
         <v>9</v>
@@ -8797,12 +7749,12 @@
         <v>40</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B120" s="15">
         <v>13</v>
@@ -8820,12 +7772,12 @@
         <v>40</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="B121" s="15">
         <v>-1</v>
@@ -8840,15 +7792,15 @@
         <v>1</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="B122" s="15">
         <v>0</v>
@@ -8863,15 +7815,15 @@
         <v>1</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B123" s="15">
         <v>-1</v>
@@ -8886,15 +7838,15 @@
         <v>1</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
@@ -8909,15 +7861,15 @@
         <v>9</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B125" s="15">
         <v>1</v>
@@ -8932,15 +7884,15 @@
         <v>9</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B126" s="15">
         <v>1</v>
@@ -8955,15 +7907,15 @@
         <v>1</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B127" s="15">
         <v>0</v>
@@ -8978,15 +7930,15 @@
         <v>1</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B128" s="15">
         <v>1</v>
@@ -9001,15 +7953,15 @@
         <v>1</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="B129" s="15">
         <v>0</v>
@@ -9024,15 +7976,15 @@
         <v>9</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="B130" s="15">
         <v>0</v>
@@ -9047,15 +7999,15 @@
         <v>1</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="15" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="B131" s="15">
         <v>0</v>
@@ -9070,15 +8022,15 @@
         <v>1</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="B132" s="15">
         <v>4</v>
@@ -9093,15 +8045,15 @@
         <v>0</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="B133" s="15">
         <v>7</v>
@@ -9116,15 +8068,15 @@
         <v>0</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B134" s="15">
         <v>1</v>
@@ -9139,15 +8091,15 @@
         <v>1</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B135" s="15">
         <v>2</v>
@@ -9162,15 +8114,15 @@
         <v>0</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="B136" s="15">
         <v>0</v>
@@ -9185,15 +8137,15 @@
         <v>9</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="B137" s="15">
         <v>-6</v>
@@ -9208,15 +8160,15 @@
         <v>1</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="B138" s="15">
         <v>0</v>
@@ -9231,15 +8183,15 @@
         <v>1</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B139" s="15">
         <v>0</v>
@@ -9254,15 +8206,15 @@
         <v>10</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B140" s="15">
         <v>6</v>
@@ -9280,12 +8232,12 @@
         <v>50</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B141" s="15">
         <v>7</v>
@@ -9303,12 +8255,12 @@
         <v>45</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B142" s="15">
         <v>9</v>
@@ -9326,12 +8278,12 @@
         <v>60</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B143" s="15">
         <v>0</v>
@@ -9346,15 +8298,15 @@
         <v>1</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B144" s="15">
         <v>4</v>
@@ -9369,15 +8321,15 @@
         <v>1</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B145" s="15">
         <v>5</v>
@@ -9392,15 +8344,15 @@
         <v>1</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B146" s="15">
         <v>0</v>
@@ -9415,15 +8367,15 @@
         <v>0</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B147" s="15">
         <v>2</v>
@@ -9441,12 +8393,12 @@
         <v>40</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B148" s="15">
         <v>5</v>
@@ -9464,12 +8416,12 @@
         <v>40</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B149" s="15">
         <v>18</v>
@@ -9484,15 +8436,15 @@
         <v>1</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B150" s="15">
         <v>22</v>
@@ -9510,12 +8462,12 @@
         <v>40</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B151" s="15">
         <v>22</v>
@@ -9533,12 +8485,12 @@
         <v>40</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B152" s="15">
         <v>23</v>
@@ -9553,15 +8505,15 @@
         <v>9</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B153" s="15">
         <v>1</v>
@@ -9576,15 +8528,15 @@
         <v>1</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B154" s="15">
         <v>2</v>
@@ -9599,15 +8551,15 @@
         <v>1</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B155" s="15">
         <v>0</v>
@@ -9622,15 +8574,15 @@
         <v>1</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B156" s="15">
         <v>1</v>
@@ -9645,15 +8597,15 @@
         <v>1</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B157" s="15">
         <v>1</v>
@@ -9668,15 +8620,15 @@
         <v>9</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B158" s="15">
         <v>1</v>
@@ -9691,15 +8643,15 @@
         <v>1</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B159" s="15">
         <v>0</v>
@@ -9714,15 +8666,15 @@
         <v>1</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B160" s="15">
         <v>3</v>
@@ -9737,15 +8689,15 @@
         <v>1</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B161" s="15">
         <v>7</v>
@@ -9760,15 +8712,15 @@
         <v>1</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B162" s="15">
         <v>0</v>
@@ -9783,15 +8735,15 @@
         <v>1</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B163" s="15">
         <v>1</v>
@@ -9806,15 +8758,15 @@
         <v>1</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="B164" s="15">
         <v>0</v>
@@ -9829,15 +8781,15 @@
         <v>1</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B165" s="15">
         <v>-2</v>
@@ -9852,15 +8804,15 @@
         <v>0</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B166" s="15">
         <v>0</v>
@@ -9875,15 +8827,15 @@
         <v>0</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B167" s="15">
         <v>2</v>
@@ -9901,12 +8853,12 @@
         <v>80</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B168" s="15">
         <v>3</v>
@@ -9924,12 +8876,12 @@
         <v>60</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B169" s="15">
         <v>4</v>
@@ -9947,12 +8899,12 @@
         <v>80</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B170" s="15">
         <v>7</v>
@@ -9967,15 +8919,15 @@
         <v>0</v>
       </c>
       <c r="F170" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B171" s="15">
         <v>11</v>
@@ -9987,18 +8939,18 @@
         <v>3</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="F171" s="15">
         <v>80</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B172" s="15">
         <v>21</v>
@@ -10013,15 +8965,15 @@
         <v>1</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B173" s="15">
         <v>26</v>
@@ -10039,12 +8991,12 @@
         <v>85</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B174" s="15">
         <v>30</v>
@@ -10059,15 +9011,15 @@
         <v>1</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G174" s="16" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B175" s="15">
         <v>0</v>
@@ -10082,15 +9034,15 @@
         <v>1</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B176" s="15">
         <v>0</v>
@@ -10105,15 +9057,15 @@
         <v>1</v>
       </c>
       <c r="F176" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G176" s="16" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B177" s="15">
         <v>1</v>
@@ -10128,15 +9080,15 @@
         <v>1</v>
       </c>
       <c r="F177" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B178" s="15">
         <v>2</v>
@@ -10151,15 +9103,15 @@
         <v>1</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B179" s="15">
         <v>0</v>
@@ -10174,15 +9126,15 @@
         <v>1</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B180" s="15">
         <v>1</v>
@@ -10197,15 +9149,15 @@
         <v>1</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B181" s="15">
         <v>2</v>
@@ -10220,15 +9172,15 @@
         <v>1</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B182" s="15">
         <v>3</v>
@@ -10243,15 +9195,15 @@
         <v>1</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G182" s="16" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B183" s="15">
         <v>5</v>
@@ -10266,15 +9218,15 @@
         <v>1</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B184" s="15">
         <v>0</v>
@@ -10289,15 +9241,15 @@
         <v>1</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B185" s="15">
         <v>3</v>
@@ -10312,15 +9264,15 @@
         <v>1</v>
       </c>
       <c r="F185" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B186" s="15">
         <v>0</v>
@@ -10335,15 +9287,15 @@
         <v>1</v>
       </c>
       <c r="F186" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B187" s="15">
         <v>5</v>
@@ -10361,12 +9313,12 @@
         <v>60</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="B188" s="15">
         <v>0</v>
@@ -10381,15 +9333,15 @@
         <v>1</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="B189" s="15">
         <v>18</v>
@@ -10404,15 +9356,15 @@
         <v>1</v>
       </c>
       <c r="F189" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B190" s="15">
         <v>0</v>
@@ -10427,15 +9379,15 @@
         <v>1</v>
       </c>
       <c r="F190" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B191" s="15">
         <v>1</v>
@@ -10450,15 +9402,15 @@
         <v>1</v>
       </c>
       <c r="F191" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B192" s="15">
         <v>4</v>
@@ -10473,15 +9425,15 @@
         <v>1</v>
       </c>
       <c r="F192" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B193" s="15">
         <v>5</v>
@@ -10496,15 +9448,15 @@
         <v>1</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B194" s="15">
         <v>5</v>
@@ -10519,15 +9471,15 @@
         <v>1</v>
       </c>
       <c r="F194" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B195" s="15">
         <v>12</v>
@@ -10542,15 +9494,15 @@
         <v>1</v>
       </c>
       <c r="F195" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B196" s="15">
         <v>0</v>
@@ -10565,15 +9517,15 @@
         <v>1</v>
       </c>
       <c r="F196" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B197" s="15">
         <v>6</v>
@@ -10588,15 +9540,15 @@
         <v>1</v>
       </c>
       <c r="F197" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B198" s="15">
         <v>7</v>
@@ -10611,15 +9563,15 @@
         <v>1</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B199" s="15">
         <v>11</v>
@@ -10637,12 +9589,12 @@
         <v>100</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B200" s="15">
         <v>0</v>
@@ -10657,15 +9609,15 @@
         <v>1</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B201" s="15">
         <v>0</v>
@@ -10683,12 +9635,12 @@
         <v>40</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B202" s="15">
         <v>1</v>
@@ -10706,12 +9658,12 @@
         <v>60</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B203" s="15">
         <v>1</v>
@@ -10726,15 +9678,15 @@
         <v>9</v>
       </c>
       <c r="F203" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B204" s="15">
         <v>4</v>
@@ -10752,12 +9704,12 @@
         <v>40</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B205" s="15">
         <v>1</v>
@@ -10775,12 +9727,12 @@
         <v>100</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B206" s="15">
         <v>2</v>
@@ -10798,12 +9750,12 @@
         <v>80</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="15" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B207" s="15">
         <v>-1</v>
@@ -10818,15 +9770,15 @@
         <v>1</v>
       </c>
       <c r="F207" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G207" s="16" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B208" s="15">
         <v>1</v>
@@ -10841,15 +9793,15 @@
         <v>1</v>
       </c>
       <c r="F208" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B209" s="15">
         <v>3</v>
@@ -10864,15 +9816,15 @@
         <v>9</v>
       </c>
       <c r="F209" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B210" s="15">
         <v>5</v>
@@ -10887,15 +9839,15 @@
         <v>0</v>
       </c>
       <c r="F210" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B211" s="15">
         <v>0</v>
@@ -10910,15 +9862,15 @@
         <v>1</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B212" s="15">
         <v>7</v>
@@ -10933,15 +9885,15 @@
         <v>1</v>
       </c>
       <c r="F212" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B213" s="15">
         <v>0</v>
@@ -10956,15 +9908,15 @@
         <v>0</v>
       </c>
       <c r="F213" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B214" s="15">
         <v>0</v>
@@ -10979,15 +9931,15 @@
         <v>1</v>
       </c>
       <c r="F214" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B215" s="15">
         <v>32</v>
@@ -11002,15 +9954,15 @@
         <v>1</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B216" s="15">
         <v>7</v>
@@ -11025,15 +9977,15 @@
         <v>1</v>
       </c>
       <c r="F216" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G216" s="16" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B217" s="15">
         <v>0</v>
@@ -11048,15 +10000,15 @@
         <v>1</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G217" s="16" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="B218" s="15">
         <v>8</v>
@@ -11071,15 +10023,15 @@
         <v>1</v>
       </c>
       <c r="F218" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G218" s="16" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B219" s="15">
         <v>0</v>
@@ -11094,15 +10046,15 @@
         <v>1</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G219" s="16" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B220" s="15">
         <v>2</v>
@@ -11117,15 +10069,15 @@
         <v>1</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G220" s="16" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B221" s="15">
         <v>7</v>
@@ -11140,15 +10092,15 @@
         <v>1</v>
       </c>
       <c r="F221" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G221" s="16" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B222" s="15">
         <v>0</v>
@@ -11163,15 +10115,15 @@
         <v>1</v>
       </c>
       <c r="F222" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G222" s="16" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="66.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B223" s="15">
         <v>1</v>
@@ -11186,15 +10138,15 @@
         <v>9</v>
       </c>
       <c r="F223" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G223" s="16" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B224" s="15">
         <v>2</v>
@@ -11209,15 +10161,15 @@
         <v>1</v>
       </c>
       <c r="F224" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G224" s="16" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B225" s="15">
         <v>4</v>
@@ -11232,15 +10184,15 @@
         <v>1</v>
       </c>
       <c r="F225" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G225" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="B226" s="15">
         <v>0</v>
@@ -11255,15 +10207,15 @@
         <v>1</v>
       </c>
       <c r="F226" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G226" s="16" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B227" s="15">
         <v>0</v>
@@ -11281,12 +10233,12 @@
         <v>40</v>
       </c>
       <c r="G227" s="16" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B228" s="15">
         <v>0</v>
@@ -11301,15 +10253,15 @@
         <v>1</v>
       </c>
       <c r="F228" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G228" s="16" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B229" s="15">
         <v>0</v>
@@ -11324,15 +10276,15 @@
         <v>9</v>
       </c>
       <c r="F229" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G229" s="16" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="66.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B230" s="15">
         <v>1</v>
@@ -11347,15 +10299,15 @@
         <v>1</v>
       </c>
       <c r="F230" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B231" s="15">
         <v>2</v>
@@ -11370,15 +10322,15 @@
         <v>1</v>
       </c>
       <c r="F231" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G231" s="16" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B232" s="15">
         <v>3</v>
@@ -11393,15 +10345,15 @@
         <v>1</v>
       </c>
       <c r="F232" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G232" s="16" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A233" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B233" s="15">
         <v>4</v>
@@ -11416,15 +10368,15 @@
         <v>1</v>
       </c>
       <c r="F233" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G233" s="16" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B234" s="15">
         <v>5</v>
@@ -11439,15 +10391,15 @@
         <v>1</v>
       </c>
       <c r="F234" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G234" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B235" s="15">
         <v>6</v>
@@ -11462,15 +10414,15 @@
         <v>1</v>
       </c>
       <c r="F235" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G235" s="16" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B236" s="15">
         <v>7</v>
@@ -11485,15 +10437,15 @@
         <v>1</v>
       </c>
       <c r="F236" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G236" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B237" s="15">
         <v>8</v>
@@ -11508,15 +10460,15 @@
         <v>1</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G237" s="16" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B238" s="15">
         <v>9</v>
@@ -11531,15 +10483,15 @@
         <v>1</v>
       </c>
       <c r="F238" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G238" s="16" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A239" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B239" s="15">
         <v>10</v>
@@ -11554,15 +10506,15 @@
         <v>1</v>
       </c>
       <c r="F239" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B240" s="15">
         <v>11</v>
@@ -11577,15 +10529,15 @@
         <v>1</v>
       </c>
       <c r="F240" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G240" s="16" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A241" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B241" s="15">
         <v>12</v>
@@ -11600,15 +10552,15 @@
         <v>1</v>
       </c>
       <c r="F241" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G241" s="16" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B242" s="15">
         <v>13</v>
@@ -11623,15 +10575,15 @@
         <v>1</v>
       </c>
       <c r="F242" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G242" s="16" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="B243" s="15">
         <v>0</v>
@@ -11646,15 +10598,15 @@
         <v>1</v>
       </c>
       <c r="F243" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G243" s="16" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B244" s="15">
         <v>0</v>
@@ -11669,15 +10621,15 @@
         <v>1</v>
       </c>
       <c r="F244" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G244" s="16" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B245" s="15">
         <v>1</v>
@@ -11692,15 +10644,15 @@
         <v>1</v>
       </c>
       <c r="F245" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G245" s="16" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B246" s="15">
         <v>2</v>
@@ -11715,15 +10667,15 @@
         <v>9</v>
       </c>
       <c r="F246" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G246" s="16" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B247" s="15">
         <v>9</v>
@@ -11738,15 +10690,15 @@
         <v>1</v>
       </c>
       <c r="F247" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G247" s="16" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B248" s="15">
         <v>0</v>
@@ -11761,15 +10713,15 @@
         <v>1</v>
       </c>
       <c r="F248" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G248" s="16" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B249" s="15">
         <v>1</v>
@@ -11784,15 +10736,15 @@
         <v>1</v>
       </c>
       <c r="F249" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G249" s="16" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B250" s="15">
         <v>6</v>
@@ -11807,15 +10759,15 @@
         <v>1</v>
       </c>
       <c r="F250" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G250" s="16" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B251" s="15">
         <v>10</v>
@@ -11830,15 +10782,15 @@
         <v>1</v>
       </c>
       <c r="F251" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G251" s="16" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B252" s="15">
         <v>11</v>
@@ -11856,12 +10808,12 @@
         <v>40</v>
       </c>
       <c r="G252" s="16" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="15" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B253" s="15">
         <v>0</v>
@@ -11876,15 +10828,15 @@
         <v>1</v>
       </c>
       <c r="F253" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G253" s="16" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B254" s="15">
         <v>4</v>
@@ -11899,15 +10851,15 @@
         <v>1</v>
       </c>
       <c r="F254" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G254" s="16" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="B255" s="15">
         <v>0</v>
@@ -11922,15 +10874,15 @@
         <v>1</v>
       </c>
       <c r="F255" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G255" s="16" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B256" s="15">
         <v>0</v>
@@ -11945,15 +10897,15 @@
         <v>9</v>
       </c>
       <c r="F256" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G256" s="16" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B257" s="15">
         <v>0</v>
@@ -11968,15 +10920,15 @@
         <v>1</v>
       </c>
       <c r="F257" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G257" s="16" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="18" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="B258" s="18">
         <v>5</v>
@@ -11991,10 +10943,10 @@
         <v>1</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
